--- a/www.eia.gov/electricity/monthly/xls/table_c_1.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_c_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
-    <t>Table C.1 Average Heat Content of Fossil-Fuel Receipts, October 2016</t>
+    <t>Table C.1 Average Heat Content of Fossil-Fuel Receipts, November 2016</t>
   </si>
   <si>
     <t>Census Division and State</t>
@@ -1180,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6">
-        <v>23.56</v>
+        <v>22.61</v>
       </c>
       <c r="C3" s="6">
-        <v>6.29</v>
+        <v>6.23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>5.67</v>
+        <v>5.8</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>24.86</v>
+        <v>24.91</v>
       </c>
       <c r="C5" s="8">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>21.36</v>
+        <v>22.43</v>
       </c>
       <c r="C6" s="8">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
@@ -1247,11 +1247,11 @@
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
-        <v>25.97</v>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>5.7</v>
+        <v>5.74</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>7</v>
@@ -1267,8 +1267,8 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
+      <c r="C8" s="8">
+        <v>5.79</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>7</v>
@@ -1299,16 +1299,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>25.02</v>
+        <v>24.61</v>
       </c>
       <c r="C10" s="6">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="6">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>26.72</v>
+        <v>26.33</v>
       </c>
       <c r="C11" s="8">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>7</v>
@@ -1333,10 +1333,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>25.77</v>
+        <v>25.93</v>
       </c>
       <c r="C12" s="8">
-        <v>6.26</v>
+        <v>6.33</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
@@ -1350,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>24.92</v>
+        <v>24.48</v>
       </c>
       <c r="C13" s="8">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
@@ -1367,13 +1367,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>20.170000000000002</v>
+        <v>20.13</v>
       </c>
       <c r="C14" s="6">
-        <v>5.77</v>
+        <v>5.81</v>
       </c>
       <c r="D14" s="6">
-        <v>27.32</v>
+        <v>27.42</v>
       </c>
       <c r="E14" s="6">
         <v>1.04</v>
@@ -1384,16 +1384,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>17.670000000000002</v>
+        <v>17.68</v>
       </c>
       <c r="C15" s="8">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="8">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C16" s="8">
         <v>5.75</v>
@@ -1418,13 +1418,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>18.809999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="C17" s="8">
-        <v>5.81</v>
+        <v>5.89</v>
       </c>
       <c r="D17" s="8">
-        <v>26.8</v>
+        <v>26.52</v>
       </c>
       <c r="E17" s="8">
         <v>1.03</v>
@@ -1435,16 +1435,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>24.42</v>
+        <v>24.63</v>
       </c>
       <c r="C18" s="8">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D18" s="8">
-        <v>27.53</v>
+        <v>27.83</v>
       </c>
       <c r="E18" s="8">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>17.84</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>18.05</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5.85</v>
       </c>
       <c r="D19" s="8">
-        <v>26.68</v>
+        <v>27.13</v>
       </c>
       <c r="E19" s="8">
         <v>1.03</v>
@@ -1469,10 +1469,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
-        <v>16.690000000000001</v>
+        <v>16.63</v>
       </c>
       <c r="C20" s="6">
-        <v>5.77</v>
+        <v>5.81</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>7</v>
@@ -1486,10 +1486,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>17.510000000000002</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C21" s="8">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>7</v>
@@ -1503,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>17.25</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5.78</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>7</v>
@@ -1520,16 +1520,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>17.420000000000002</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="C23" s="8">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,10 +1537,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>17.5</v>
+        <v>17.55</v>
       </c>
       <c r="C24" s="8">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>7</v>
@@ -1554,16 +1554,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="C25" s="8">
-        <v>5.75</v>
+        <v>16.89</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="8">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,10 +1571,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="8">
-        <v>13.2</v>
+        <v>13.22</v>
       </c>
       <c r="C26" s="8">
-        <v>5.75</v>
+        <v>5.98</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>7</v>
@@ -1588,10 +1588,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="8">
-        <v>16.46</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>7</v>
@@ -1605,13 +1605,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="6">
-        <v>23.68</v>
+        <v>23.71</v>
       </c>
       <c r="C28" s="6">
-        <v>5.83</v>
+        <v>6.06</v>
       </c>
       <c r="D28" s="6">
-        <v>27.77</v>
+        <v>27.84</v>
       </c>
       <c r="E28" s="6">
         <v>1.03</v>
@@ -1621,11 +1621,11 @@
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>7</v>
+      <c r="B29" s="8">
+        <v>25.76</v>
       </c>
       <c r="C29" s="8">
-        <v>5.67</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>7</v>
@@ -1656,13 +1656,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="8">
-        <v>23.39</v>
+        <v>23.56</v>
       </c>
       <c r="C31" s="8">
-        <v>5.67</v>
+        <v>5.77</v>
       </c>
       <c r="D31" s="8">
-        <v>28.02</v>
+        <v>28.03</v>
       </c>
       <c r="E31" s="8">
         <v>1.02</v>
@@ -1673,13 +1673,13 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>20.46</v>
+        <v>20.39</v>
       </c>
       <c r="C32" s="8">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="D32" s="8">
-        <v>26.43</v>
+        <v>25.91</v>
       </c>
       <c r="E32" s="8">
         <v>1.03</v>
@@ -1690,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="8">
-        <v>25.37</v>
+        <v>25.19</v>
       </c>
       <c r="C33" s="8">
         <v>5.81</v>
@@ -1707,16 +1707,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>24.74</v>
+        <v>24.85</v>
       </c>
       <c r="C34" s="8">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,10 +1724,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="8">
-        <v>25.27</v>
+        <v>25.26</v>
       </c>
       <c r="C35" s="8">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>7</v>
@@ -1741,16 +1741,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="8">
-        <v>25.14</v>
+        <v>23.33</v>
       </c>
       <c r="C36" s="8">
-        <v>5.89</v>
+        <v>6.25</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,16 +1758,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="8">
-        <v>24.7</v>
+        <v>24.64</v>
       </c>
       <c r="C37" s="8">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,13 +1775,13 @@
         <v>42</v>
       </c>
       <c r="B38" s="6">
-        <v>20.64</v>
+        <v>20.71</v>
       </c>
       <c r="C38" s="6">
         <v>5.79</v>
       </c>
       <c r="D38" s="6">
-        <v>28.3</v>
+        <v>28.12</v>
       </c>
       <c r="E38" s="6">
         <v>1.03</v>
@@ -1792,10 +1792,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="8">
-        <v>19.23</v>
+        <v>19.28</v>
       </c>
       <c r="C39" s="8">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>7</v>
@@ -1809,16 +1809,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="8">
-        <v>21.52</v>
+        <v>21.84</v>
       </c>
       <c r="C40" s="8">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D40" s="8">
-        <v>28.3</v>
+        <v>28.12</v>
       </c>
       <c r="E40" s="8">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,16 +1826,16 @@
         <v>45</v>
       </c>
       <c r="B41" s="8">
-        <v>16.29</v>
+        <v>14.75</v>
       </c>
       <c r="C41" s="8">
-        <v>5.83</v>
+        <v>5.81</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="8">
-        <v>21.49</v>
+        <v>21.67</v>
       </c>
       <c r="C42" s="8">
         <v>5.76</v>
@@ -1860,13 +1860,13 @@
         <v>47</v>
       </c>
       <c r="B43" s="6">
-        <v>15.99</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="C43" s="6">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="D43" s="6">
-        <v>28.22</v>
+        <v>28.61</v>
       </c>
       <c r="E43" s="6">
         <v>1.03</v>
@@ -1877,10 +1877,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="8">
-        <v>17.52</v>
+        <v>17.41</v>
       </c>
       <c r="C44" s="8">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>7</v>
@@ -1894,16 +1894,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="8">
-        <v>16.03</v>
-      </c>
-      <c r="C45" s="8">
-        <v>5.9</v>
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D45" s="8">
-        <v>28.22</v>
+        <v>28.61</v>
       </c>
       <c r="E45" s="8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,10 +1911,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="8">
-        <v>17.28</v>
-      </c>
-      <c r="C46" s="8">
-        <v>5.77</v>
+        <v>17.34</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>7</v>
@@ -1928,16 +1928,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="8">
-        <v>15.55</v>
+        <v>15.73</v>
       </c>
       <c r="C47" s="8">
-        <v>5.81</v>
+        <v>5.78</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="8">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="6">
-        <v>18.72</v>
+        <v>18.7</v>
       </c>
       <c r="C48" s="6">
         <v>5.73</v>
@@ -1962,10 +1962,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="8">
-        <v>19.2</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="C49" s="8">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>7</v>
@@ -1981,14 +1981,14 @@
       <c r="B50" s="8">
         <v>18.61</v>
       </c>
-      <c r="C50" s="8">
-        <v>5.67</v>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="8">
-        <v>16.91</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>7</v>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="C52" s="8">
+        <v>5.92</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>7</v>
@@ -2030,10 +2030,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="8">
-        <v>21.38</v>
-      </c>
-      <c r="C53" s="8">
-        <v>5.77</v>
+        <v>20.47</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>7</v>
@@ -2047,7 +2047,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="8">
-        <v>18.73</v>
+        <v>18.57</v>
       </c>
       <c r="C54" s="8">
         <v>5.66</v>
@@ -2064,10 +2064,10 @@
         <v>59</v>
       </c>
       <c r="B55" s="8">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="C55" s="8">
-        <v>5.8</v>
+        <v>5.88</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>7</v>
@@ -2081,16 +2081,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="8">
-        <v>17.47</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C56" s="8">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="8">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,16 +2098,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="6">
-        <v>17.79</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C57" s="6">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="6">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="8">
-        <v>23</v>
+        <v>22.94</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>7</v>
@@ -2132,7 +2132,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>17.260000000000002</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>7</v>
@@ -2149,16 +2149,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="8">
-        <v>16.989999999999998</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="C60" s="8">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="8">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,10 +2166,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="6">
-        <v>18.399999999999999</v>
+        <v>18.95</v>
       </c>
       <c r="C61" s="6">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>7</v>
@@ -2186,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="8">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>7</v>
@@ -2200,10 +2200,10 @@
         <v>67</v>
       </c>
       <c r="B63" s="8">
-        <v>19.489999999999998</v>
+        <v>19.47</v>
       </c>
       <c r="C63" s="8">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>7</v>
@@ -2217,13 +2217,13 @@
         <v>68</v>
       </c>
       <c r="B64" s="6">
-        <v>19.16</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="C64" s="6">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="D64" s="6">
-        <v>27.93</v>
+        <v>28.14</v>
       </c>
       <c r="E64" s="6">
         <v>1.03</v>
